--- a/data/usdm/CDISC_Pilot_Study.xlsx
+++ b/data/usdm/CDISC_Pilot_Study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/study_prep/usdm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/study_prep/data/usdm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C9C23A-E3A5-BD4E-AD4E-62ADB00DB485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96BE96B-DBDA-D149-82DE-E05DA0F72DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="1260" windowWidth="38400" windowHeight="20160" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="44980" yWindow="500" windowWidth="56420" windowHeight="27240" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -204,12 +204,6 @@
     <t>Primary Endpoint</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Secondary Endpoint</t>
   </si>
   <si>
@@ -1421,6 +1415,9 @@
   </si>
   <si>
     <t>PR:PR1</t>
+  </si>
+  <si>
+    <t>BC:Body temperature, BC:Body Weight, BC:Body Height, TL: vsBloodPressure</t>
   </si>
   <si>
     <t>Vital Sign Blood Pressure Timeline</t>
@@ -4791,7 +4788,10 @@
     <t>Hachinski Ischemic Scale</t>
   </si>
   <si>
-    <t>BC: Body Temperature, BC:Body Weight, BC:Body Height, TL: vsBloodPressure</t>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
   <si>
     <t>BC: Informed Consent</t>
@@ -5094,17 +5094,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5441,10 +5441,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -5454,7 +5454,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -5464,7 +5464,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
@@ -5484,74 +5484,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="11"/>
       <c r="E12" s="33"/>
@@ -5559,20 +5559,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -5583,71 +5583,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" t="s">
         <v>244</v>
       </c>
-      <c r="B17" t="s">
-        <v>456</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>245</v>
-      </c>
-      <c r="D17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" t="s">
-        <v>247</v>
       </c>
       <c r="F17" s="35">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" t="s">
         <v>248</v>
       </c>
-      <c r="B18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>249</v>
-      </c>
-      <c r="D18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" t="s">
-        <v>251</v>
       </c>
       <c r="F18" s="35">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5675,24 +5675,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -5703,16 +5703,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -5722,38 +5722,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -5764,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5773,7 +5773,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -6412,24 +6412,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6459,38 +6459,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6501,7 +6501,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6517,10 +6517,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -6562,7 +6562,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -6571,7 +6571,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
@@ -6581,7 +6581,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
@@ -6591,7 +6591,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
@@ -6601,7 +6601,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
@@ -6613,7 +6613,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
@@ -6623,7 +6623,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
@@ -6633,7 +6633,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1" t="s">
@@ -6643,7 +6643,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
@@ -6653,10 +6653,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -6839,39 +6839,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -6880,31 +6880,31 @@
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E3" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="H3" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="I3" s="42" t="s">
         <v>487</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -6914,68 +6914,68 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6986,16 +6986,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -7004,10 +7004,10 @@
     <row r="11" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>490</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>491</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -7016,10 +7016,10 @@
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -7031,10 +7031,10 @@
     <row r="13" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -7191,686 +7191,686 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H19" s="58"/>
       <c r="I19" s="58"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -7900,62 +7900,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>529</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>864</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
+        <v>864</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>866</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>865</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>867</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>866</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>868</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -8148,13 +8148,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8170,15 +8170,15 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8191,18 +8191,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -8223,58 +8223,58 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -8287,18 +8287,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -8327,74 +8327,74 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -8407,42 +8407,42 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -8483,61 +8483,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>476</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -8562,13 +8562,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>38</v>
@@ -8576,30 +8576,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8630,42 +8630,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>462</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -8674,13 +8674,13 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8693,8 +8693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8714,34 +8714,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>45</v>
@@ -8751,24 +8751,24 @@
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>874</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="11" t="s">
@@ -8781,11 +8781,11 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="13"/>
       <c r="F3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="11" t="s">
@@ -8797,19 +8797,19 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>10</v>
@@ -8825,10 +8825,10 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="13"/>
       <c r="F5" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="11" t="s">
@@ -8841,13 +8841,13 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="13"/>
       <c r="F6" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="11" t="s">
@@ -8859,28 +8859,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>875</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -8888,15 +8888,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -8904,14 +8904,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -8919,22 +8919,22 @@
     </row>
     <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>875</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -8942,26 +8942,26 @@
     </row>
     <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>875</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -8969,26 +8969,26 @@
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>48</v>
+        <v>875</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -9166,22 +9166,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="F1" s="37" t="s">
         <v>258</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9189,19 +9189,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -9229,28 +9229,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9279,59 +9279,59 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9362,319 +9362,319 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -9703,27 +9703,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -9732,94 +9732,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9848,73 +9848,73 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>330</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
         <v>333</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>334</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>335</v>
       </c>
-      <c r="E2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" t="s">
-        <v>337</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -9922,25 +9922,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" t="s">
         <v>429</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>430</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" t="s">
         <v>431</v>
       </c>
-      <c r="D5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5" t="s">
-        <v>433</v>
-      </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -9948,16 +9948,16 @@
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -9983,16 +9983,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="D1" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="372" x14ac:dyDescent="0.2">
@@ -10001,10 +10001,10 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
@@ -10013,10 +10013,10 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10025,20 +10025,20 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="45" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -10047,10 +10047,10 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -10059,492 +10059,492 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>604</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="45" t="s">
+        <v>606</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>607</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="45" t="s">
+        <v>609</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>610</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>613</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>618</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>623</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>628</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>631</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>634</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="D20" s="46" t="s">
         <v>637</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>642</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>645</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>648</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>651</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>656</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D29" s="46" t="s">
         <v>661</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A30" s="48" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="45" t="s">
+        <v>663</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>664</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="D32" s="46" t="s">
         <v>669</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="45" t="s">
+        <v>671</v>
+      </c>
+      <c r="D33" s="46" t="s">
         <v>672</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>675</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="D35" s="46" t="s">
         <v>678</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="48" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="D38" s="46" t="s">
         <v>685</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A39" s="48" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="45" t="s">
+        <v>687</v>
+      </c>
+      <c r="D39" s="46" t="s">
         <v>688</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="45" t="s">
+        <v>690</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>691</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="48" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>694</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="48" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="45" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A43" s="48" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="45" t="s">
+        <v>698</v>
+      </c>
+      <c r="D43" s="46" t="s">
         <v>699</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="D44" s="46" t="s">
         <v>702</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="48" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>705</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="D46" s="46" t="s">
         <v>708</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="289" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="45" t="s">
+        <v>710</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>711</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="D48" s="46" t="s">
         <v>714</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -10553,162 +10553,162 @@
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="45" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="D50" s="46" t="s">
         <v>718</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="D51" s="46" t="s">
         <v>721</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="45" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="323" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="D53" s="46" t="s">
         <v>726</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="D54" s="46" t="s">
         <v>729</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="D55" s="46" t="s">
         <v>732</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A56" s="48" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>735</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="D57" s="46" t="s">
         <v>738</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A58" s="48" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="45" t="s">
+        <v>740</v>
+      </c>
+      <c r="D58" s="46" t="s">
         <v>741</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="D59" s="46" t="s">
         <v>744</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="D60" s="46" t="s">
         <v>747</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="D61" s="46" t="s">
         <v>750</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>753</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -10717,44 +10717,44 @@
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="48" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="D64" s="46" t="s">
         <v>757</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="48" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="D65" s="46" t="s">
         <v>760</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="48" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="45" t="s">
+        <v>762</v>
+      </c>
+      <c r="D66" s="46" t="s">
         <v>763</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
@@ -10763,130 +10763,130 @@
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="48" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="45" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D68" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="48" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="45" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D69" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="48" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="45" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D70" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="48" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="48" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="45" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D72" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="48" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="45" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="48" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="45" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D74" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="45" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D75" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="45" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D76" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="48" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="45" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -10912,34 +10912,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -10987,39 +10987,39 @@
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>266</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>267</v>
       </c>
-      <c r="D3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" t="s">
-        <v>269</v>
-      </c>
       <c r="F3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -11049,46 +11049,46 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+        <v>118</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>120</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="63"/>
@@ -11099,24 +11099,24 @@
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -11124,71 +11124,71 @@
         <v>32</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+        <v>419</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>525</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>526</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" s="61" t="s">
         <v>527</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+        <v>78</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>439</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+        <v>79</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -11200,91 +11200,86 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>119</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -11292,6 +11287,11 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11304,7 +11304,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11321,42 +11321,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>518</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>27</v>
@@ -11365,16 +11365,16 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G2" s="3">
         <v>701</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -11403,564 +11403,564 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>830</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -11988,82 +11988,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -12089,13 +12089,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
@@ -12103,72 +12103,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -12181,7 +12181,7 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12206,69 +12206,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q1" s="56" t="s">
+      <c r="S1" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -12324,61 +12324,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="57" t="s">
+      <c r="O3" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="57" t="s">
-        <v>364</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -12388,114 +12388,114 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K4" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M5" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="O5" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M5" s="56" t="s">
+      <c r="P5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q5" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="Q5" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>368</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K6" s="56"/>
       <c r="M6" s="56"/>
@@ -12506,7 +12506,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -12515,101 +12515,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="O8" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="Q8" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="Q8" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -12620,7 +12620,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K9" s="56"/>
       <c r="M9" s="56"/>
@@ -12742,7 +12742,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
@@ -12800,7 +12800,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -12854,7 +12854,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
@@ -12909,7 +12909,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
@@ -13074,7 +13074,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
@@ -13129,7 +13129,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
@@ -13184,7 +13184,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
@@ -13239,7 +13239,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
@@ -13294,10 +13294,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>875</v>
+        <v>451</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -13351,7 +13351,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
@@ -13406,7 +13406,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
@@ -13516,7 +13516,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
@@ -13571,10 +13571,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -13741,7 +13741,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -13795,7 +13795,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="1" t="s">
@@ -13850,7 +13850,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="25" t="s">
@@ -13905,10 +13905,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -13962,7 +13962,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
@@ -14017,7 +14017,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="2" t="s">
@@ -14074,7 +14074,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
@@ -14129,7 +14129,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
@@ -14184,7 +14184,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
@@ -14239,7 +14239,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
       <c r="B39" s="55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="56" t="s">
@@ -14735,6 +14735,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -14935,27 +14955,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14972,29 +14997,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>